--- a/mbs-perturbation/mega/welm/nearmiss/WELM_rbf_nearmiss_results.xlsx
+++ b/mbs-perturbation/mega/welm/nearmiss/WELM_rbf_nearmiss_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4895833333333333</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.34020842379505</v>
+        <v>0.4080338266384778</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5157894736842106</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4984472049689441</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4842105263157895</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5978260869565217</v>
+        <v>0.4382290562036055</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5368421052631579</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3317736185383244</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5144444444444445</v>
+        <v>0.4872835497835497</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5000219298245614</v>
+        <v>0.4999732691793638</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.456539955740657</v>
+        <v>0.4422648420806821</v>
       </c>
     </row>
   </sheetData>
